--- a/Characterized Motors.xlsx
+++ b/Characterized Motors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ftc\RobotPhysics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E80BD4F7-D5B4-4570-959A-0CCC813A57B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0BAC9A48-384F-448B-A645-A8C930C907E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26265" windowHeight="14385" xr2:uid="{14A2B7E8-0450-4740-9EA4-16D83E10B3D8}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H2:H18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
